--- a/Complement_Assay_Plots/20240228_SC5b-9_NP5-7.xlsx
+++ b/Complement_Assay_Plots/20240228_SC5b-9_NP5-7.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Complement_Assay_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12921597-6B13-B147-B3D1-A002880B99A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B003D4-0A08-AA49-9E05-CD95FBBE8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">-231473296</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
   <si>
     <t>Software Version</t>
   </si>
@@ -260,6 +261,30 @@
   </si>
   <si>
     <t>STDEV</t>
+  </si>
+  <si>
+    <t>Polymer</t>
+  </si>
+  <si>
+    <t>N/P Ratio</t>
+  </si>
+  <si>
+    <t>pDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive </t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>control</t>
   </si>
 </sst>
 </file>
@@ -499,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -612,6 +637,13 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2226,7 +2258,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="49" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="7">
@@ -2279,7 +2311,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B29" s="47"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="13">
         <v>0.126</v>
       </c>
@@ -2330,7 +2362,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="8">
@@ -2383,7 +2415,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B31" s="47"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="19">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -2434,7 +2466,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="49" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="7">
@@ -2487,7 +2519,7 @@
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B33" s="47"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="13">
         <v>9.9000000000000005E-2</v>
       </c>
@@ -2538,7 +2570,7 @@
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="7">
@@ -2582,7 +2614,7 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B35" s="47"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="13">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2624,7 +2656,7 @@
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="49" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="26">
@@ -2677,7 +2709,7 @@
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B37" s="47"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="16">
         <v>0.159</v>
       </c>
@@ -2728,7 +2760,7 @@
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="26">
@@ -2772,7 +2804,7 @@
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B39" s="47"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="16">
         <v>0.161</v>
       </c>
@@ -2814,7 +2846,7 @@
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="49" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="22">
@@ -2864,7 +2896,7 @@
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B41" s="47"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="23">
         <v>0.36699999999999999</v>
       </c>
@@ -2906,7 +2938,7 @@
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="49" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="22">
@@ -2953,7 +2985,7 @@
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B43" s="47"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="31">
         <v>0.38800000000000001</v>
       </c>
@@ -3151,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8437500C-E4BF-4198-A3DD-E165B0E67073}">
   <dimension ref="B2:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20:AE48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4881,4 +4913,348 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A7DA2F-DE6C-6040-8583-1E2F0FB102DD}">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="47">
+        <v>30.555555555555557</v>
+      </c>
+      <c r="D2">
+        <v>0.6285393610547092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="47">
+        <v>152.72222222222223</v>
+      </c>
+      <c r="D3">
+        <v>7.149635231997296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="47">
+        <v>41.166666666666671</v>
+      </c>
+      <c r="D4">
+        <v>1.4927809825049358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="47">
+        <v>29.500000000000004</v>
+      </c>
+      <c r="D6">
+        <v>7.8567420131840843E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="47">
+        <v>29.333333333333336</v>
+      </c>
+      <c r="D7">
+        <v>0.15713484026367666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="47">
+        <v>31.666666666666671</v>
+      </c>
+      <c r="D10">
+        <v>0.78567420131838595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>7.5</v>
+      </c>
+      <c r="C11" s="47">
+        <v>34.277777777777786</v>
+      </c>
+      <c r="D11">
+        <v>3.6926687461964192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="47">
+        <v>99.166666666666671</v>
+      </c>
+      <c r="D14">
+        <v>98.916381945984796</v>
+      </c>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>7.5</v>
+      </c>
+      <c r="C15" s="47">
+        <v>43.5</v>
+      </c>
+      <c r="D15">
+        <v>3.2212642254053896</v>
+      </c>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="47">
+        <v>35.333333333333336</v>
+      </c>
+      <c r="D18">
+        <v>6.1282587702834572</v>
+      </c>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>7.5</v>
+      </c>
+      <c r="C19" s="47">
+        <v>52.277777777777779</v>
+      </c>
+      <c r="D19">
+        <v>1.964185503295971</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="47">
+        <v>32.277777777777786</v>
+      </c>
+      <c r="D22">
+        <v>0.2357022603955175</v>
+      </c>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>7.5</v>
+      </c>
+      <c r="C23" s="47">
+        <v>101.38888888888889</v>
+      </c>
+      <c r="D23">
+        <v>18.934748251773161</v>
+      </c>
+      <c r="J23" s="47"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="35"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G26" s="47"/>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J32" s="47"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J33" s="47"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="47"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Complement_Assay_Plots/20240228_SC5b-9_NP5-7.xlsx
+++ b/Complement_Assay_Plots/20240228_SC5b-9_NP5-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Complement_Assay_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B003D4-0A08-AA49-9E05-CD95FBBE8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9101E5-E2CE-7644-920D-4564EF0F2F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20300" yWindow="4760" windowWidth="22220" windowHeight="19540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="82">
   <si>
     <t>Software Version</t>
   </si>
@@ -272,26 +272,26 @@
     <t>pDNA</t>
   </si>
   <si>
-    <t xml:space="preserve">Negative </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive </t>
-  </si>
-  <si>
     <t>Concentration</t>
   </si>
   <si>
     <t>Stdev</t>
   </si>
   <si>
-    <t>control</t>
+    <t>Zymosan</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -337,6 +337,19 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -456,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -520,11 +533,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -637,19 +663,33 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2258,7 +2298,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="7">
@@ -2311,7 +2351,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B29" s="50"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="13">
         <v>0.126</v>
       </c>
@@ -2362,7 +2402,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="46" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="8">
@@ -2415,7 +2455,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B31" s="50"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="19">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -2466,7 +2506,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="7">
@@ -2519,7 +2559,7 @@
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B33" s="50"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="13">
         <v>9.9000000000000005E-2</v>
       </c>
@@ -2570,7 +2610,7 @@
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="7">
@@ -2614,7 +2654,7 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B35" s="50"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="13">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2656,7 +2696,7 @@
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="26">
@@ -2709,7 +2749,7 @@
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B37" s="50"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="16">
         <v>0.159</v>
       </c>
@@ -2760,7 +2800,7 @@
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="26">
@@ -2804,7 +2844,7 @@
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B39" s="50"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="16">
         <v>0.161</v>
       </c>
@@ -2846,7 +2886,7 @@
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="22">
@@ -2896,7 +2936,7 @@
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B41" s="50"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="23">
         <v>0.36699999999999999</v>
       </c>
@@ -2938,7 +2978,7 @@
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="22">
@@ -2985,7 +3025,7 @@
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B43" s="50"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="31">
         <v>0.38800000000000001</v>
       </c>
@@ -4917,15 +4957,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A7DA2F-DE6C-6040-8583-1E2F0FB102DD}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>74</v>
       </c>
@@ -4933,326 +4973,1062 @@
         <v>75</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="39">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35">
+        <v>30.555555555555557</v>
+      </c>
+      <c r="D2" s="35">
+        <v>0.6285393610547092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="39">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35">
+        <v>152.72222222222223</v>
+      </c>
+      <c r="D3" s="35">
+        <v>7.149635231997296</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="47">
-        <v>30.555555555555557</v>
-      </c>
-      <c r="D2">
-        <v>0.6285393610547092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="47">
-        <v>152.72222222222223</v>
-      </c>
-      <c r="D3">
-        <v>7.149635231997296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="B4" s="39">
+        <v>0</v>
+      </c>
+      <c r="C4" s="48">
+        <v>81.55556</v>
+      </c>
+      <c r="D4" s="48">
+        <v>23.334523780000001</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="47">
+      <c r="B5" s="39">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35">
         <v>41.166666666666671</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="35">
         <v>1.4927809825049358</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="B6" s="39">
+        <v>5</v>
+      </c>
+      <c r="C6" s="35">
+        <v>29.500000000000004</v>
+      </c>
+      <c r="D6" s="35">
+        <v>7.8567420131840843E-2</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="39">
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="35">
+        <v>29.333333333333336</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0.15713484026367666</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="56">
+        <v>10</v>
+      </c>
+      <c r="C8" s="48">
+        <v>59.777774999999998</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1.178513659</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="39">
         <v>5</v>
       </c>
-      <c r="C6" s="47">
-        <v>29.500000000000004</v>
-      </c>
-      <c r="D6">
-        <v>7.8567420131840843E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
+      <c r="C9" s="35">
+        <v>31.666666666666671</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0.78567420131838595</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="49"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="39">
         <v>7.5</v>
       </c>
-      <c r="C7" s="47">
-        <v>29.333333333333336</v>
-      </c>
-      <c r="D7">
-        <v>0.15713484026367666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
+      <c r="C10" s="35">
+        <v>34.277777777777786</v>
+      </c>
+      <c r="D10" s="35">
+        <v>3.6926687461964192</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="56">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
+      <c r="C11" s="48">
+        <v>55.944445000000002</v>
+      </c>
+      <c r="D11" s="48">
+        <v>9.7423545970000003</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="49"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="39">
         <v>5</v>
       </c>
-      <c r="C10" s="47">
-        <v>31.666666666666671</v>
-      </c>
-      <c r="D10">
-        <v>0.78567420131838595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
+      <c r="C12" s="48">
+        <v>42.666670000000003</v>
+      </c>
+      <c r="D12" s="48">
+        <v>8.4852813739999995</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="49"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="39">
         <v>7.5</v>
       </c>
-      <c r="C11" s="47">
-        <v>34.277777777777786</v>
-      </c>
-      <c r="D11">
-        <v>3.6926687461964192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
+      <c r="C13" s="35">
+        <v>43.5</v>
+      </c>
+      <c r="D13" s="35">
+        <v>3.2212642254053896</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="49"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="56">
         <v>10</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="47"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
+      <c r="C14" s="48">
+        <v>57.27778</v>
+      </c>
+      <c r="D14" s="48">
+        <v>1.414213562</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="39">
         <v>5</v>
       </c>
-      <c r="C14" s="47">
-        <v>99.166666666666671</v>
-      </c>
-      <c r="D14">
-        <v>98.916381945984796</v>
-      </c>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
+      <c r="C15" s="35">
+        <v>35.333333333333336</v>
+      </c>
+      <c r="D15" s="35">
+        <v>6.1282587702834572</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="49"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="39">
         <v>7.5</v>
       </c>
-      <c r="C15" s="47">
-        <v>43.5</v>
-      </c>
-      <c r="D15">
-        <v>3.2212642254053896</v>
-      </c>
-      <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
+      <c r="C16" s="48">
+        <v>52.27778</v>
+      </c>
+      <c r="D16" s="48">
+        <v>1.9641870749999999</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="49"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="56">
         <v>10</v>
       </c>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
+      <c r="C17" s="48">
+        <v>70.888890000000004</v>
+      </c>
+      <c r="D17" s="48">
+        <v>12.020815280000001</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="49"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="39">
         <v>5</v>
       </c>
-      <c r="C18" s="47">
-        <v>35.333333333333336</v>
-      </c>
-      <c r="D18">
-        <v>6.1282587702834572</v>
-      </c>
-      <c r="J18" s="47"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
+      <c r="C18" s="48">
+        <v>32.277774999999998</v>
+      </c>
+      <c r="D18" s="48">
+        <v>0.23569990299999999</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="49"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="39">
         <v>7.5</v>
       </c>
-      <c r="C19" s="47">
-        <v>52.277777777777779</v>
-      </c>
-      <c r="D19">
-        <v>1.964185503295971</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="J19" s="47"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
+      <c r="C19" s="48">
+        <v>44.222225000000002</v>
+      </c>
+      <c r="D19" s="48">
+        <v>7.5424746899999997</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="49"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="56">
         <v>10</v>
       </c>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="47"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="47">
-        <v>32.277777777777786</v>
-      </c>
-      <c r="D22">
-        <v>0.2357022603955175</v>
-      </c>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23">
-        <v>7.5</v>
-      </c>
-      <c r="C23" s="47">
-        <v>101.38888888888889</v>
-      </c>
-      <c r="D23">
-        <v>18.934748251773161</v>
-      </c>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="J24" s="47"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C20" s="57">
+        <v>64.222224999999995</v>
+      </c>
+      <c r="D20" s="57">
+        <v>16.3420226</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="49"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="49"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="49"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="49"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="49"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="49"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="49"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
-      <c r="J25" s="47"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G26" s="47"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J28" s="47"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J29" s="47"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J30" s="47"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J31" s="47"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J33" s="47"/>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J34" s="47"/>
-    </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J35" s="47"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="49"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="49"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="49"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="49"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="49"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" s="50"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="49"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" s="50"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="49"/>
+    </row>
+    <row r="33" spans="6:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" s="49"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="49"/>
+    </row>
+    <row r="34" spans="6:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" s="49"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="49"/>
+    </row>
+    <row r="35" spans="6:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" s="49"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="49"/>
+    </row>
+    <row r="36" spans="6:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" s="49"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="49"/>
+    </row>
+    <row r="37" spans="6:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" s="49"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="49"/>
+    </row>
+    <row r="38" spans="6:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="49"/>
+    </row>
+    <row r="39" spans="6:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+    </row>
+    <row r="40" spans="6:21" x14ac:dyDescent="0.15">
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+    </row>
+    <row r="41" spans="6:21" x14ac:dyDescent="0.15">
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+    </row>
+    <row r="42" spans="6:21" x14ac:dyDescent="0.15">
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+    </row>
+    <row r="43" spans="6:21" x14ac:dyDescent="0.15">
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+    </row>
+    <row r="44" spans="6:21" x14ac:dyDescent="0.15">
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+    </row>
+    <row r="45" spans="6:21" x14ac:dyDescent="0.15">
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+    </row>
+    <row r="46" spans="6:21" x14ac:dyDescent="0.15">
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+    </row>
+    <row r="47" spans="6:21" x14ac:dyDescent="0.15">
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
